--- a/Специалитет.xlsx
+++ b/Специалитет.xlsx
@@ -544,7 +544,7 @@
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>Ср. балл</t>
+          <t xml:space="preserve">Ср.балл </t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -584,34 +584,31 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>75.09999999999999</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -629,19 +626,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>74.90000000000001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -707,34 +707,34 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G7" t="n">
-        <v>62.3</v>
+        <v>66.8</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>60.6</v>
+        <v>51.7</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -752,34 +752,31 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F8" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>73.5</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -797,13 +794,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>89</v>
+        <v>171</v>
       </c>
       <c r="E9" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
         <v>69.90000000000001</v>
@@ -812,16 +809,16 @@
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>94.3</v>
+        <v>67</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
@@ -842,31 +839,31 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>69</v>
+        <v>139</v>
       </c>
       <c r="E10" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G10" t="n">
-        <v>73.09999999999999</v>
+        <v>70.8</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>70.7</v>
+        <v>67</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
@@ -887,28 +884,31 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="E11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
-        <v>70</v>
+        <v>70.2</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>67</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1007,31 +1007,31 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="E14" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14" t="n">
-        <v>55.8</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1052,13 +1052,16 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>65.3</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1130,13 +1133,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>82.3</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
